--- a/MassUpload/templates/Coupon-Template-Mass-Uploading.xlsx
+++ b/MassUpload/templates/Coupon-Template-Mass-Uploading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\myxfin_st\MassUpload\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\st_myxfinancials\MassUpload\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269783B3-A6A8-41DA-A9AC-16DB81E06841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FB41D-9886-43C8-A153-125AA2F88FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1695" windowWidth="20370" windowHeight="9825" xr2:uid="{684991DE-E452-4FD2-BF76-52AFA1A1FA30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{684991DE-E452-4FD2-BF76-52AFA1A1FA30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Remarks</t>
   </si>
@@ -171,6 +171,36 @@
       </rPr>
       <t xml:space="preserve">
 (After activation it will apply base on days) Example 365</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Account Code</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(From Chart of Accounts)</t>
     </r>
   </si>
 </sst>
@@ -179,8 +209,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -235,11 +265,10 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -247,10 +276,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,47 +605,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDE36A9-C668-4B13-B3B6-0EDB176DE455}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21" style="3" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E2" s="8"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
